--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_277.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_277.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(76.56, 94.12)]</t>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:06.415079', '0:00:14.054444')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9), (1.18, 6.14)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
+          <t>[('0:00:00.500000', '0:00:05.580000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:13.520000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>0.2697674418604651</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[(9.74, 35.46)]</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(44.82, 60.84)]</t>
+          <t>[('0:00:09.900000', '0:00:34.680000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:32.700000', '0:00:45.640000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -618,585 +630,556 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[('0:00:27.520000', '0:00:38.500000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:45.760000', '0:00:55.480000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9), (31.6, 33.8)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (65.9, 72.44)]</t>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.82, 107.92)]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.28, 103.4)]</t>
+          <t>[('0:00:06.760000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:01.900000', '0:00:05.580000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(120.4, 127.2)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(118.78, 126.08)]</t>
+          <t>[('0:01:33', '0:01:43.280000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:41.440000', '0:01:52.400000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(102.16, 113.9)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(41.32, 49.38)]</t>
+          <t>[('0:00:19.435000', '0:00:32.669000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06650570676031607</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'C#:min', 'F#:min']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3540229885057471</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'C#:min', 'F#:min']]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(50.732063, 57.045249)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(11.14034, 18.686825)]</t>
+          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
+          <t>[('0:00:22.300000', '0:00:49.660000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(30.24, 38.5), (84.62, 91.74)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(90.78, 101.32), (41.58, 43.48)]</t>
+          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:21.080000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:03:46.020000', '0:04:01.060000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(21.58, 29.34)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.7, 5.28)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.88, 22.2)]</t>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.36, 24.16)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.5, 23.02)]</t>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(3.988594, 7.754783)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(18.32, 25.82)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
